--- a/data/input/CATEX_predators.xlsx
+++ b/data/input/CATEX_predators.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23801"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28324"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ksam\Documents\GitHub\CATEX_BABE\data\input\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{05F1577D-0459-4737-80A8-1B79938DE711}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1EB12339-7B2A-4858-98AC-A2F338330099}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="26100" yWindow="1260" windowWidth="17280" windowHeight="8964" xr2:uid="{F7C0E062-2EEA-4D85-90E1-8FD7E973F4B1}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{F7C0E062-2EEA-4D85-90E1-8FD7E973F4B1}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="61" uniqueCount="35">
   <si>
     <t>LAK</t>
   </si>
@@ -95,23 +95,56 @@
     <t>Arth_pred</t>
   </si>
   <si>
-    <t>Ants_reative_abundance_total</t>
-  </si>
-  <si>
     <t>Mean_herb_abundance</t>
   </si>
   <si>
-    <t>Total_abundance</t>
-  </si>
-  <si>
     <t>Ants_relative_abun_per_survey</t>
+  </si>
+  <si>
+    <t>NA</t>
+  </si>
+  <si>
+    <t>20.495 ± 1.25</t>
+  </si>
+  <si>
+    <t>5.948 ± 0.01</t>
+  </si>
+  <si>
+    <t>18.509 ± 0.89</t>
+  </si>
+  <si>
+    <t>5.833 ± 0.01</t>
+  </si>
+  <si>
+    <t>6.779 ± 0.86</t>
+  </si>
+  <si>
+    <t>6.328 ± 0.78</t>
+  </si>
+  <si>
+    <t>5.563 ± 1.54</t>
+  </si>
+  <si>
+    <t>6.589 ± 1.78</t>
+  </si>
+  <si>
+    <t>Mean_herb_abundancetab</t>
+  </si>
+  <si>
+    <t>19.23 ±  2.33</t>
+  </si>
+  <si>
+    <t>7.21 ± 2.16</t>
+  </si>
+  <si>
+    <t>Ants_relative_abundance_total</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -120,24 +153,30 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="10"/>
-      <color rgb="FF000000"/>
       <name val="Lucida Console"/>
       <family val="3"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="2">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.79998168889431442"/>
-        <bgColor indexed="64"/>
-      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -152,25 +191,20 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -190,9 +224,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - 2022 Theme">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2013 - 2022">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -230,7 +264,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2013 - 2022">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -336,7 +370,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2013 - 2022">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -478,7 +512,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -486,28 +520,35 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B80EE4D7-E0BC-4870-8B81-8814B0000DC3}">
-  <dimension ref="A1:P33"/>
+  <dimension ref="A1:P32"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="H16" sqref="H16"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <pane xSplit="3" ySplit="1" topLeftCell="D2" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight" activeCell="D1" sqref="D1"/>
+      <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
+      <selection pane="bottomRight" activeCell="M22" sqref="M22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="3" max="5" width="11.88671875" customWidth="1"/>
-    <col min="6" max="6" width="19.33203125" style="1" customWidth="1"/>
-    <col min="7" max="10" width="17.6640625" style="1" customWidth="1"/>
-    <col min="11" max="16" width="12.109375" style="1" customWidth="1"/>
+    <col min="1" max="2" width="8.88671875" style="4"/>
+    <col min="3" max="5" width="11.88671875" style="4" customWidth="1"/>
+    <col min="6" max="6" width="19.33203125" style="2" customWidth="1"/>
+    <col min="7" max="10" width="17.6640625" style="2" customWidth="1"/>
+    <col min="11" max="14" width="31.77734375" style="2" customWidth="1"/>
+    <col min="15" max="15" width="19" style="2" customWidth="1"/>
+    <col min="16" max="16" width="12.109375" style="2" customWidth="1"/>
+    <col min="17" max="16384" width="8.88671875" style="4"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A1" s="4" t="s">
+      <c r="A1" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="B1" s="4" t="s">
+      <c r="B1" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="C1" s="4" t="s">
+      <c r="C1" s="1" t="s">
         <v>6</v>
       </c>
       <c r="D1" s="2" t="s">
@@ -516,151 +557,169 @@
       <c r="E1" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="F1" s="2" t="s">
+      <c r="F1" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="G1" s="2" t="s">
+      <c r="G1" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="H1" s="2" t="s">
+      <c r="H1" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="I1" s="2" t="s">
+      <c r="I1" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="J1" s="2" t="s">
+      <c r="J1" s="3" t="s">
         <v>10</v>
       </c>
       <c r="K1" s="2" t="s">
         <v>17</v>
       </c>
       <c r="L1" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="M1" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="N1" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="M1" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="N1" s="2" t="s">
-        <v>21</v>
-      </c>
       <c r="O1" s="2" t="s">
-        <v>22</v>
+        <v>31</v>
       </c>
       <c r="P1" s="2" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="2" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A2" s="4" t="s">
+      <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="4">
+      <c r="B2" s="1">
         <v>51.2</v>
       </c>
-      <c r="C2" s="4" t="s">
+      <c r="C2" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="D2" s="1">
+      <c r="D2" s="2">
         <v>0</v>
       </c>
-      <c r="E2" s="1">
+      <c r="E2" s="2">
         <v>0.12254901960784309</v>
       </c>
-      <c r="F2" s="6">
+      <c r="F2" s="3">
         <v>2893.95</v>
       </c>
-      <c r="G2" s="6">
+      <c r="G2" s="3">
         <v>8609.7999999999975</v>
       </c>
-      <c r="H2" s="6">
-        <v>271</v>
-      </c>
-      <c r="I2" s="6">
+      <c r="H2" s="3">
+        <v>171</v>
+      </c>
+      <c r="I2" s="3">
         <v>314</v>
       </c>
-      <c r="J2" s="6">
+      <c r="J2" s="3">
         <v>18.05</v>
       </c>
-      <c r="K2" s="6">
-        <v>3950</v>
-      </c>
-      <c r="L2" s="2"/>
-      <c r="M2" s="2"/>
-      <c r="N2" s="2"/>
-      <c r="O2" s="2"/>
-      <c r="P2" s="2"/>
+      <c r="K2" s="2">
+        <v>2505</v>
+      </c>
+      <c r="L2" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="M2" s="2">
+        <v>0.97966366839999997</v>
+      </c>
+      <c r="N2" s="2">
+        <v>19.23</v>
+      </c>
+      <c r="O2" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="P2" s="2" t="s">
+        <v>22</v>
+      </c>
     </row>
     <row r="3" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A3" s="4" t="s">
+      <c r="A3" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B3" s="4">
+      <c r="B3" s="1">
         <v>51.2</v>
       </c>
-      <c r="C3" s="4" t="s">
+      <c r="C3" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="D3" s="1">
+      <c r="D3" s="2">
         <v>3.1007751937984496E-2</v>
       </c>
-      <c r="E3" s="1">
+      <c r="E3" s="2">
         <v>0.20542635658914726</v>
       </c>
-      <c r="F3" s="6">
+      <c r="F3" s="3">
         <v>30732.35</v>
       </c>
-      <c r="G3" s="6">
+      <c r="G3" s="3">
         <v>39955.10000000002</v>
       </c>
-      <c r="H3" s="6">
+      <c r="H3" s="3">
         <v>585</v>
       </c>
-      <c r="I3" s="6">
+      <c r="I3" s="3">
         <v>787</v>
       </c>
-      <c r="J3" s="6">
+      <c r="J3" s="3">
         <v>18.34</v>
       </c>
-      <c r="K3" s="6">
-        <v>1154</v>
-      </c>
-      <c r="L3" s="2"/>
-      <c r="M3" s="2"/>
-      <c r="N3" s="2"/>
-      <c r="O3" s="2"/>
+      <c r="K3" s="2">
+        <v>52</v>
+      </c>
+      <c r="L3" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="M3" s="2">
+        <v>2.033633164E-2</v>
+      </c>
+      <c r="N3" s="2">
+        <v>7.21</v>
+      </c>
+      <c r="O3" s="2" t="s">
+        <v>33</v>
+      </c>
       <c r="P3" s="2">
         <v>12.207000000000001</v>
       </c>
     </row>
     <row r="4" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A4" s="4" t="s">
+      <c r="A4" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="B4" s="4">
+      <c r="B4" s="1">
         <v>42.68</v>
       </c>
-      <c r="C4" s="4" t="s">
+      <c r="C4" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="D4" s="1">
+      <c r="D4" s="2">
         <v>6.5625000000000017E-2</v>
       </c>
-      <c r="E4" s="1">
+      <c r="E4" s="2">
         <v>0.12786458333333336</v>
       </c>
-      <c r="F4" s="2">
+      <c r="F4" s="3">
         <v>4844.1499999999996</v>
       </c>
-      <c r="G4" s="2">
+      <c r="G4" s="3">
         <v>7974</v>
       </c>
-      <c r="H4" s="2">
+      <c r="H4" s="3">
         <v>265</v>
       </c>
-      <c r="I4" s="2">
+      <c r="I4" s="3">
         <v>302</v>
       </c>
-      <c r="J4" s="2">
+      <c r="J4" s="3">
         <v>18.27</v>
       </c>
       <c r="K4" s="2">
@@ -673,94 +732,94 @@
         <v>0.77390282099999996</v>
       </c>
       <c r="N4" s="2">
-        <v>20.495899999999999</v>
-      </c>
-      <c r="O4" s="2">
-        <v>61.091999999999999</v>
+        <v>20.495000000000001</v>
+      </c>
+      <c r="O4" s="2" t="s">
+        <v>23</v>
       </c>
       <c r="P4" s="2">
         <v>15.419600000000001</v>
       </c>
     </row>
     <row r="5" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A5" s="3" t="s">
+      <c r="A5" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="B5" s="3">
+      <c r="B5" s="1">
         <v>42.68</v>
       </c>
-      <c r="C5" s="3" t="s">
+      <c r="C5" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="D5" s="1">
+      <c r="D5" s="2">
         <v>0.17589285714285716</v>
       </c>
-      <c r="E5" s="1">
+      <c r="E5" s="2">
         <v>0.10714285714285718</v>
       </c>
-      <c r="F5" s="2">
+      <c r="F5" s="3">
         <v>13427.15</v>
       </c>
-      <c r="G5" s="2">
+      <c r="G5" s="3">
         <v>40590.9</v>
       </c>
-      <c r="H5" s="2">
+      <c r="H5" s="3">
         <v>622</v>
       </c>
-      <c r="I5" s="2">
+      <c r="I5" s="3">
         <v>799</v>
       </c>
-      <c r="J5" s="2">
+      <c r="J5" s="3">
         <v>21.58</v>
       </c>
-      <c r="K5" s="1">
+      <c r="K5" s="2">
         <v>1154</v>
       </c>
-      <c r="L5" s="1">
+      <c r="L5" s="2">
         <v>1.2518577178004621E-2</v>
       </c>
-      <c r="M5" s="1">
+      <c r="M5" s="2">
         <v>0.22609717900000001</v>
       </c>
-      <c r="N5" s="1">
-        <v>5.9481000000000002</v>
-      </c>
-      <c r="O5" s="1">
-        <v>25.297000000000001</v>
-      </c>
-      <c r="P5" s="1">
+      <c r="N5" s="2">
+        <v>5.9480000000000004</v>
+      </c>
+      <c r="O5" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="P5" s="2">
         <v>2.3182</v>
       </c>
     </row>
     <row r="6" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A6" s="4" t="s">
+      <c r="A6" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="B6" s="4">
+      <c r="B6" s="1">
         <v>21.6</v>
       </c>
-      <c r="C6" s="4" t="s">
+      <c r="C6" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="D6" s="1">
+      <c r="D6" s="2">
         <v>1.9270833333333331E-2</v>
       </c>
-      <c r="E6" s="1">
+      <c r="E6" s="2">
         <v>0.19062500000000004</v>
       </c>
-      <c r="F6" s="2">
+      <c r="F6" s="3">
         <v>15566.65</v>
       </c>
-      <c r="G6" s="2">
+      <c r="G6" s="3">
         <v>27276.65</v>
       </c>
-      <c r="H6" s="2">
-        <v>516</v>
-      </c>
-      <c r="I6" s="2">
+      <c r="H6" s="3">
+        <v>416</v>
+      </c>
+      <c r="I6" s="3">
         <v>741</v>
       </c>
-      <c r="J6" s="2">
+      <c r="J6" s="3">
         <v>28.75</v>
       </c>
       <c r="K6" s="2">
@@ -772,39 +831,45 @@
       <c r="M6" s="2">
         <v>0.33680957900000003</v>
       </c>
-      <c r="N6" s="2"/>
-      <c r="O6" s="2"/>
-      <c r="P6" s="2"/>
+      <c r="N6" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="O6" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="P6" s="2" t="s">
+        <v>22</v>
+      </c>
     </row>
     <row r="7" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A7" s="4" t="s">
+      <c r="A7" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="B7" s="4">
+      <c r="B7" s="1">
         <v>21.6</v>
       </c>
-      <c r="C7" s="4" t="s">
+      <c r="C7" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="D7" s="1">
+      <c r="D7" s="2">
         <v>7.8125E-3</v>
       </c>
-      <c r="E7" s="1">
+      <c r="E7" s="2">
         <v>4.8437500000000001E-2</v>
       </c>
-      <c r="F7" s="2">
+      <c r="F7" s="3">
         <v>6457.35</v>
       </c>
-      <c r="G7" s="2">
+      <c r="G7" s="3">
         <v>27076.35</v>
       </c>
-      <c r="H7" s="2">
+      <c r="H7" s="3">
         <v>108</v>
       </c>
-      <c r="I7" s="2">
+      <c r="I7" s="3">
         <v>305</v>
       </c>
-      <c r="J7" s="2">
+      <c r="J7" s="3">
         <v>62.47</v>
       </c>
       <c r="K7" s="2">
@@ -816,39 +881,45 @@
       <c r="M7" s="2">
         <v>0.66319042100000003</v>
       </c>
-      <c r="N7" s="2"/>
-      <c r="O7" s="2"/>
-      <c r="P7" s="2"/>
+      <c r="N7" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="O7" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="P7" s="2" t="s">
+        <v>22</v>
+      </c>
     </row>
     <row r="8" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A8" s="4" t="s">
+      <c r="A8" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="B8" s="4">
+      <c r="B8" s="1">
         <v>-5.13</v>
       </c>
-      <c r="C8" s="4" t="s">
+      <c r="C8" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="D8" s="1">
+      <c r="D8" s="2">
         <v>0.05</v>
       </c>
-      <c r="E8" s="1">
+      <c r="E8" s="2">
         <v>0.19244791666666658</v>
       </c>
-      <c r="F8" s="2">
-        <v>26991.35</v>
-      </c>
-      <c r="G8" s="2">
+      <c r="F8" s="3">
+        <v>14991.35</v>
+      </c>
+      <c r="G8" s="3">
         <v>32127.35</v>
       </c>
-      <c r="H8" s="2">
-        <v>845</v>
-      </c>
-      <c r="I8" s="2">
+      <c r="H8" s="3">
+        <v>545</v>
+      </c>
+      <c r="I8" s="3">
         <v>946</v>
       </c>
-      <c r="J8" s="2">
+      <c r="J8" s="3">
         <v>27.016999999999999</v>
       </c>
       <c r="K8" s="2">
@@ -860,39 +931,45 @@
       <c r="M8" s="2">
         <v>0.42718827399999998</v>
       </c>
-      <c r="N8" s="2"/>
-      <c r="O8" s="2"/>
-      <c r="P8" s="2"/>
+      <c r="N8" s="2">
+        <v>5.5629999999999997</v>
+      </c>
+      <c r="O8" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="P8" s="2" t="s">
+        <v>22</v>
+      </c>
     </row>
     <row r="9" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A9" s="4" t="s">
+      <c r="A9" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="B9" s="4">
+      <c r="B9" s="1">
         <v>-5.13</v>
       </c>
-      <c r="C9" s="4" t="s">
+      <c r="C9" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="D9" s="1">
+      <c r="D9" s="2">
         <v>3.1250000000000002E-3</v>
       </c>
-      <c r="E9" s="1">
+      <c r="E9" s="2">
         <v>4.3489583333333338E-2</v>
       </c>
-      <c r="F9" s="2">
+      <c r="F9" s="3">
         <v>9005.0300000000007</v>
       </c>
-      <c r="G9" s="2">
+      <c r="G9" s="3">
         <v>151966.23000000001</v>
       </c>
-      <c r="H9" s="2">
+      <c r="H9" s="3">
         <v>106</v>
       </c>
-      <c r="I9" s="2">
+      <c r="I9" s="3">
         <v>775.5</v>
       </c>
-      <c r="J9" s="2">
+      <c r="J9" s="3">
         <v>92.462999999999994</v>
       </c>
       <c r="K9" s="2">
@@ -904,39 +981,45 @@
       <c r="M9" s="2">
         <v>0.57281172599999997</v>
       </c>
-      <c r="N9" s="2"/>
-      <c r="O9" s="2"/>
-      <c r="P9" s="2"/>
+      <c r="N9" s="2">
+        <v>6.5890000000000004</v>
+      </c>
+      <c r="O9" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="P9" s="2" t="s">
+        <v>22</v>
+      </c>
     </row>
     <row r="10" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A10" s="4" t="s">
+      <c r="A10" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="B10" s="4">
+      <c r="B10" s="1">
         <v>-16.100000000000001</v>
       </c>
-      <c r="C10" s="4" t="s">
+      <c r="C10" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="D10" s="1">
+      <c r="D10" s="2">
         <v>3.4374999999999996E-2</v>
       </c>
-      <c r="E10" s="1">
+      <c r="E10" s="2">
         <v>0.35</v>
       </c>
-      <c r="F10" s="2">
-        <v>9392.7999999999993</v>
-      </c>
-      <c r="G10" s="2">
+      <c r="F10" s="3">
+        <v>6784.3</v>
+      </c>
+      <c r="G10" s="3">
         <v>87378</v>
       </c>
-      <c r="H10" s="2">
-        <v>273</v>
-      </c>
-      <c r="I10" s="2">
+      <c r="H10" s="3">
+        <v>227</v>
+      </c>
+      <c r="I10" s="3">
         <v>487</v>
       </c>
-      <c r="J10" s="2">
+      <c r="J10" s="3">
         <v>24.85</v>
       </c>
       <c r="K10" s="2">
@@ -948,39 +1031,45 @@
       <c r="M10" s="2">
         <v>0.73713991800000001</v>
       </c>
-      <c r="N10" s="2"/>
-      <c r="O10" s="2"/>
-      <c r="P10" s="2"/>
+      <c r="N10" s="2">
+        <v>6.7789999999999999</v>
+      </c>
+      <c r="O10" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="P10" s="2">
+        <v>0.2</v>
+      </c>
     </row>
     <row r="11" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A11" s="4" t="s">
+      <c r="A11" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="B11" s="4">
+      <c r="B11" s="1">
         <v>-16.100000000000001</v>
       </c>
-      <c r="C11" s="4" t="s">
+      <c r="C11" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="D11" s="1">
+      <c r="D11" s="2">
         <v>3.9285714285714278E-2</v>
       </c>
-      <c r="E11" s="1">
+      <c r="E11" s="2">
         <v>0.12053571428571432</v>
       </c>
-      <c r="F11" s="2">
-        <v>6784.3</v>
-      </c>
-      <c r="G11" s="2">
+      <c r="F11" s="3">
+        <v>9392.7999999999993</v>
+      </c>
+      <c r="G11" s="3">
         <v>168901.5</v>
       </c>
-      <c r="H11" s="2">
-        <v>227</v>
-      </c>
-      <c r="I11" s="2">
+      <c r="H11" s="3">
+        <v>273</v>
+      </c>
+      <c r="I11" s="3">
         <v>1002</v>
       </c>
-      <c r="J11" s="2">
+      <c r="J11" s="3">
         <v>41.19</v>
       </c>
       <c r="K11" s="2">
@@ -992,39 +1081,45 @@
       <c r="M11" s="2">
         <v>0.26286008199999999</v>
       </c>
-      <c r="N11" s="2"/>
-      <c r="O11" s="2"/>
-      <c r="P11" s="2"/>
+      <c r="N11" s="2">
+        <v>6.3280000000000003</v>
+      </c>
+      <c r="O11" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="P11" s="2">
+        <v>0.05</v>
+      </c>
     </row>
     <row r="12" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A12" s="4" t="s">
+      <c r="A12" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="B12" s="4">
+      <c r="B12" s="1">
         <v>-33.619999999999997</v>
       </c>
-      <c r="C12" s="4" t="s">
+      <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="D12" s="1">
+      <c r="D12" s="2">
         <v>4.3749999999999997E-2</v>
       </c>
-      <c r="E12" s="1">
+      <c r="E12" s="2">
         <v>0.14999999999999997</v>
       </c>
-      <c r="F12" s="2">
+      <c r="F12" s="3">
         <v>8270</v>
       </c>
-      <c r="G12" s="2">
+      <c r="G12" s="3">
         <v>34966.5</v>
       </c>
-      <c r="H12" s="2">
-        <v>95</v>
-      </c>
-      <c r="I12" s="2">
+      <c r="H12" s="3">
+        <v>195</v>
+      </c>
+      <c r="I12" s="3">
         <v>181</v>
       </c>
-      <c r="J12" s="2">
+      <c r="J12" s="3">
         <v>87.05</v>
       </c>
       <c r="K12" s="2">
@@ -1036,39 +1131,45 @@
       <c r="M12" s="2">
         <v>0.68568982000000001</v>
       </c>
-      <c r="N12" s="2"/>
-      <c r="O12" s="2"/>
-      <c r="P12" s="2"/>
+      <c r="N12" s="2">
+        <v>18.509</v>
+      </c>
+      <c r="O12" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="P12" s="2">
+        <v>2.1749999999999998</v>
+      </c>
     </row>
     <row r="13" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A13" s="4" t="s">
+      <c r="A13" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="B13" s="4">
+      <c r="B13" s="1">
         <v>-33.619999999999997</v>
       </c>
-      <c r="C13" s="4" t="s">
+      <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="D13" s="1">
+      <c r="D13" s="2">
         <v>0.12470238095238098</v>
       </c>
-      <c r="E13" s="1">
+      <c r="E13" s="2">
         <v>0.27499999999999991</v>
       </c>
-      <c r="F13" s="2">
+      <c r="F13" s="3">
         <v>54988.75</v>
       </c>
-      <c r="G13" s="2">
+      <c r="G13" s="3">
         <v>193292.25</v>
       </c>
-      <c r="H13" s="2">
+      <c r="H13" s="3">
         <v>504</v>
       </c>
-      <c r="I13" s="2">
+      <c r="I13" s="3">
         <v>573</v>
       </c>
-      <c r="J13" s="2">
+      <c r="J13" s="3">
         <v>109.1</v>
       </c>
       <c r="K13" s="2">
@@ -1080,14 +1181,134 @@
       <c r="M13" s="2">
         <v>0.31431017999999999</v>
       </c>
-      <c r="N13" s="2"/>
-      <c r="O13" s="2"/>
-      <c r="P13" s="2"/>
-    </row>
-    <row r="33" spans="6:6" x14ac:dyDescent="0.3">
-      <c r="F33" s="5"/>
+      <c r="N13" s="2">
+        <v>5.8330000000000002</v>
+      </c>
+      <c r="O13" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="P13" s="2">
+        <v>0.97660000000000002</v>
+      </c>
+    </row>
+    <row r="14" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="F14" s="3"/>
+      <c r="G14" s="3"/>
+      <c r="H14" s="3"/>
+      <c r="I14" s="3"/>
+      <c r="J14" s="3"/>
+      <c r="K14" s="3"/>
+    </row>
+    <row r="15" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="J15" s="3"/>
+      <c r="K15" s="3"/>
+    </row>
+    <row r="16" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A16" s="1"/>
+      <c r="B16" s="1"/>
+      <c r="D16" s="2"/>
+      <c r="E16" s="2"/>
+      <c r="J16" s="3"/>
+      <c r="K16" s="3"/>
+      <c r="P16" s="4"/>
+    </row>
+    <row r="17" spans="5:16" x14ac:dyDescent="0.3">
+      <c r="E17" s="2"/>
+      <c r="J17" s="3"/>
+      <c r="K17" s="3"/>
+      <c r="P17" s="4"/>
+    </row>
+    <row r="18" spans="5:16" x14ac:dyDescent="0.3">
+      <c r="E18" s="2"/>
+      <c r="J18" s="3"/>
+      <c r="K18" s="3"/>
+      <c r="P18" s="4"/>
+    </row>
+    <row r="19" spans="5:16" x14ac:dyDescent="0.3">
+      <c r="E19" s="2"/>
+      <c r="H19" s="3"/>
+      <c r="J19" s="3"/>
+      <c r="K19" s="3"/>
+      <c r="P19" s="4"/>
+    </row>
+    <row r="20" spans="5:16" x14ac:dyDescent="0.3">
+      <c r="E20" s="2"/>
+      <c r="H20" s="3"/>
+      <c r="J20" s="3"/>
+      <c r="K20" s="3"/>
+      <c r="P20" s="4"/>
+    </row>
+    <row r="21" spans="5:16" x14ac:dyDescent="0.3">
+      <c r="E21" s="2"/>
+      <c r="H21" s="3"/>
+      <c r="J21" s="3"/>
+      <c r="K21" s="3"/>
+      <c r="P21" s="4"/>
+    </row>
+    <row r="22" spans="5:16" x14ac:dyDescent="0.3">
+      <c r="E22" s="2"/>
+      <c r="H22" s="3"/>
+      <c r="J22" s="3"/>
+      <c r="K22" s="3"/>
+      <c r="P22" s="4"/>
+    </row>
+    <row r="23" spans="5:16" x14ac:dyDescent="0.3">
+      <c r="E23" s="2"/>
+      <c r="H23" s="3"/>
+      <c r="J23" s="3"/>
+      <c r="K23" s="3"/>
+      <c r="P23" s="4"/>
+    </row>
+    <row r="24" spans="5:16" x14ac:dyDescent="0.3">
+      <c r="E24" s="2"/>
+      <c r="H24" s="3"/>
+      <c r="J24" s="3"/>
+      <c r="K24" s="3"/>
+      <c r="P24" s="4"/>
+    </row>
+    <row r="25" spans="5:16" x14ac:dyDescent="0.3">
+      <c r="E25" s="2"/>
+      <c r="H25" s="3"/>
+      <c r="J25" s="3"/>
+      <c r="K25" s="3"/>
+      <c r="P25" s="4"/>
+    </row>
+    <row r="26" spans="5:16" x14ac:dyDescent="0.3">
+      <c r="E26" s="2"/>
+      <c r="H26" s="3"/>
+      <c r="J26" s="3"/>
+      <c r="P26" s="4"/>
+    </row>
+    <row r="27" spans="5:16" x14ac:dyDescent="0.3">
+      <c r="E27" s="2"/>
+      <c r="H27" s="3"/>
+      <c r="J27" s="3"/>
+      <c r="P27" s="4"/>
+    </row>
+    <row r="28" spans="5:16" x14ac:dyDescent="0.3">
+      <c r="E28" s="2"/>
+      <c r="H28" s="3"/>
+      <c r="J28" s="3"/>
+      <c r="P28" s="4"/>
+    </row>
+    <row r="29" spans="5:16" x14ac:dyDescent="0.3">
+      <c r="E29" s="2"/>
+      <c r="H29" s="3"/>
+      <c r="P29" s="4"/>
+    </row>
+    <row r="30" spans="5:16" x14ac:dyDescent="0.3">
+      <c r="E30" s="2"/>
+      <c r="H30" s="3"/>
+      <c r="P30" s="4"/>
+    </row>
+    <row r="31" spans="5:16" x14ac:dyDescent="0.3">
+      <c r="H31" s="3"/>
+    </row>
+    <row r="32" spans="5:16" x14ac:dyDescent="0.3">
+      <c r="F32" s="5"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>